--- a/CV project.xlsx
+++ b/CV project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\vision-latex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EBE9D-EBBF-4FF7-95F8-E1C1BFD84F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86B0DA-04C2-43FF-8A70-ECB8172612DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Display week:</t>
   </si>
   <si>
-    <t>ASSIGNED TO</t>
-  </si>
-  <si>
     <t>Evaluation</t>
   </si>
   <si>
@@ -281,6 +278,12 @@
   </si>
   <si>
     <t>VISIONLATEX</t>
+  </si>
+  <si>
+    <t>https://github.com/AprendizajeProfundo/Diplomado-Avanzado?tab=readme-ov-file#visi%C3%B3n-artificial</t>
+  </si>
+  <si>
+    <t>Revisited</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +843,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,42 +999,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1037,11 +1010,55 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1707,14 +1724,14 @@
   <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="59" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="10" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="9" customWidth="1"/>
@@ -1726,36 +1743,36 @@
   <sheetData>
     <row r="1" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" s="20"/>
-      <c r="B1" s="85" t="s">
-        <v>77</v>
+      <c r="B1" s="70" t="s">
+        <v>76</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
       <c r="H1" s="25"/>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="Q1" s="66">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="Q1" s="79">
         <f ca="1">TODAY()</f>
         <v>45367</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
     </row>
     <row r="2" spans="1:64" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="27"/>
@@ -1763,27 +1780,27 @@
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="Q2" s="64">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="Q2" s="77">
         <v>1</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
     </row>
     <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
@@ -1793,102 +1810,102 @@
       <c r="A4" s="20"/>
       <c r="B4" s="30"/>
       <c r="E4" s="11"/>
-      <c r="I4" s="61">
+      <c r="I4" s="84">
         <f ca="1">I5</f>
         <v>45362</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82">
         <f ca="1">P5</f>
         <v>45369</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82">
         <f ca="1">W5</f>
         <v>45376</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59">
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82">
         <f ca="1">AD5</f>
         <v>45383</v>
       </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59">
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82">
         <f ca="1">AK5</f>
         <v>45390</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59">
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="82"/>
+      <c r="AR4" s="82">
         <f ca="1">AR5</f>
         <v>45397</v>
       </c>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59">
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="82">
         <f ca="1">AY5</f>
         <v>45404</v>
       </c>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59">
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="82">
         <f ca="1">BF5</f>
         <v>45411</v>
       </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="60"/>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="83"/>
     </row>
     <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="76" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="31">
@@ -2117,12 +2134,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>l</v>
@@ -2418,7 +2435,7 @@
     <row r="8" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="54"/>
@@ -2489,24 +2506,24 @@
     <row r="9" spans="1:64" s="14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="44">
-        <v>0</v>
-      </c>
-      <c r="E9" s="52">
+      <c r="D9" s="85">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="86">
         <f ca="1">Project_Start</f>
         <v>45367</v>
       </c>
-      <c r="F9" s="52">
-        <f ca="1">E9+3</f>
-        <v>45370</v>
+      <c r="F9" s="86">
+        <f ca="1">E9</f>
+        <v>45367</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -2568,14 +2585,20 @@
     <row r="10" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="44">
-        <v>0</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="D10" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="86">
+        <f ca="1">Project_Start</f>
+        <v>45367</v>
+      </c>
+      <c r="F10" s="86">
+        <f ca="1">E10</f>
+        <v>45367</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
@@ -2638,19 +2661,21 @@
     <row r="11" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="44">
         <v>0</v>
       </c>
       <c r="E11" s="52">
         <f ca="1">F9</f>
-        <v>45370</v>
+        <v>45367</v>
       </c>
       <c r="F11" s="52">
         <f ca="1">E11+2</f>
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="1">
@@ -2717,7 +2742,7 @@
     <row r="12" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="44">
@@ -2725,11 +2750,11 @@
       </c>
       <c r="E12" s="52">
         <f ca="1">F11</f>
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="F12" s="52">
         <f ca="1">E12+4</f>
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="1">
@@ -2796,7 +2821,7 @@
     <row r="13" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="44">
@@ -2866,7 +2891,7 @@
     <row r="14" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="44">
@@ -2874,11 +2899,11 @@
       </c>
       <c r="E14" s="52">
         <f ca="1">F12</f>
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="F14" s="52">
         <f ca="1">E14+5</f>
-        <v>45381</v>
+        <v>45378</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="1">
@@ -2945,7 +2970,7 @@
     <row r="15" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="44">
@@ -3015,7 +3040,7 @@
     <row r="16" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="44">
@@ -3023,11 +3048,11 @@
       </c>
       <c r="E16" s="52">
         <f ca="1">E11+1</f>
-        <v>45371</v>
+        <v>45368</v>
       </c>
       <c r="F16" s="52">
         <f ca="1">E16+2</f>
-        <v>45373</v>
+        <v>45370</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="1">
@@ -3094,7 +3119,7 @@
     <row r="17" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54"/>
@@ -3109,7 +3134,7 @@
     <row r="18" spans="1:64" s="14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="44">
@@ -3117,11 +3142,11 @@
       </c>
       <c r="E18" s="52">
         <f ca="1">E16+1</f>
-        <v>45372</v>
+        <v>45369</v>
       </c>
       <c r="F18" s="52">
         <f ca="1">E18+4</f>
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="1">
@@ -3188,7 +3213,7 @@
     <row r="19" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="44">
@@ -3196,11 +3221,11 @@
       </c>
       <c r="E19" s="52">
         <f ca="1">E18+2</f>
-        <v>45374</v>
+        <v>45371</v>
       </c>
       <c r="F19" s="52">
         <f ca="1">E19+5</f>
-        <v>45379</v>
+        <v>45376</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="1">
@@ -3267,7 +3292,7 @@
     <row r="20" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="44">
@@ -3275,11 +3300,11 @@
       </c>
       <c r="E20" s="52">
         <f ca="1">F19</f>
-        <v>45379</v>
+        <v>45376</v>
       </c>
       <c r="F20" s="52">
         <f ca="1">E20+3</f>
-        <v>45382</v>
+        <v>45379</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="1">
@@ -3346,7 +3371,7 @@
     <row r="21" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="44">
@@ -3354,11 +3379,11 @@
       </c>
       <c r="E21" s="52">
         <f ca="1">E20</f>
-        <v>45379</v>
+        <v>45376</v>
       </c>
       <c r="F21" s="52">
         <f ca="1">E21+2</f>
-        <v>45381</v>
+        <v>45378</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="1">
@@ -3425,7 +3450,7 @@
     <row r="22" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="44">
@@ -3433,11 +3458,11 @@
       </c>
       <c r="E22" s="52">
         <f ca="1">F21</f>
-        <v>45381</v>
+        <v>45378</v>
       </c>
       <c r="F22" s="52">
         <f t="shared" ref="F22:F23" ca="1" si="6">E22+2</f>
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
@@ -3501,7 +3526,7 @@
     <row r="23" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="44">
@@ -3509,11 +3534,11 @@
       </c>
       <c r="E23" s="52">
         <f ca="1">F22</f>
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="F23" s="52">
         <f t="shared" ca="1" si="6"/>
-        <v>45385</v>
+        <v>45382</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
@@ -3585,11 +3610,11 @@
       </c>
       <c r="E24" s="52">
         <f ca="1">E23</f>
-        <v>45383</v>
+        <v>45380</v>
       </c>
       <c r="F24" s="52">
         <f ca="1">E24+3</f>
-        <v>45386</v>
+        <v>45383</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="1">
@@ -3727,7 +3752,7 @@
     <row r="26" spans="1:64" s="14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="44">
@@ -3806,7 +3831,7 @@
     <row r="27" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="44">
@@ -3885,7 +3910,7 @@
     <row r="28" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="44">
@@ -3961,7 +3986,7 @@
     <row r="29" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="44">
@@ -4037,7 +4062,7 @@
     <row r="30" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="44">
@@ -4113,7 +4138,7 @@
     <row r="31" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="44">
@@ -4350,7 +4375,7 @@
     <row r="34" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="54"/>
@@ -4421,7 +4446,7 @@
     <row r="35" spans="1:64" s="14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="44">
@@ -4500,7 +4525,7 @@
     <row r="36" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="44">
@@ -4579,7 +4604,7 @@
     <row r="37" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="44">
@@ -4658,7 +4683,7 @@
     <row r="38" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="51"/>
       <c r="D38" s="44">
@@ -4737,7 +4762,7 @@
     <row r="39" spans="1:64" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="44">
@@ -4965,16 +4990,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4983,6 +4998,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="23">
@@ -5052,9 +5077,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A34" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A41" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" location="visi%C3%B3n-artificial" xr:uid="{9E8BCD8D-9E5D-4A24-B703-10EEF3DE901F}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5095,285 +5123,195 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="73" customWidth="1"/>
-    <col min="2" max="7" width="11" style="73"/>
-    <col min="8" max="8" width="4.375" style="73" customWidth="1"/>
-    <col min="9" max="13" width="3.25" style="73" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="73" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="73" customWidth="1"/>
-    <col min="16" max="18" width="11" style="73"/>
-    <col min="19" max="19" width="11" style="73" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="73"/>
+    <col min="1" max="1" width="5.125" style="59" customWidth="1"/>
+    <col min="2" max="7" width="11" style="59"/>
+    <col min="8" max="8" width="4.375" style="59" customWidth="1"/>
+    <col min="9" max="13" width="3.25" style="59" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="59" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="59" customWidth="1"/>
+    <col min="16" max="18" width="11" style="59"/>
+    <col min="19" max="19" width="11" style="59" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="75"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="75"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="G3" s="63"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="G4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="63"/>
+      <c r="P5" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="63"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="L6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="Q6" s="63"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="G7" s="63"/>
+      <c r="L7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="D8" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="G8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="Q8" s="63"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="G9" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="G10" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="Q10" s="63"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="L11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="Q11" s="63"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="Q12" s="63"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="L13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="Q13" s="63"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="65"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62"/>
+      <c r="B17" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="77"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="80" t="s">
+      <c r="G17" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="75"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="77"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="77"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="77"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="77"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="77"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="77"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="76"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="77"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="77"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="77"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="77"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="77"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="77"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="77"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="77"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="77"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="77"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="77"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="77"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="77"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="79"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="80" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="77"/>
+      <c r="A18" s="62"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="79"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5398,13 +5336,13 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,10 +5350,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5423,10 +5361,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5434,10 +5372,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5445,10 +5383,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5456,10 +5394,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5467,10 +5405,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,10 +5416,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5489,10 +5427,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,10 +5438,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5511,10 +5449,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5522,10 +5460,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5533,10 +5471,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5544,10 +5482,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5555,10 +5493,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5566,10 +5504,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5577,10 +5515,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5588,10 +5526,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5599,10 +5537,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5610,10 +5548,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5621,10 +5559,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5632,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,7 +5578,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5649,15 +5587,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5675,6 +5604,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5990,14 +5928,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6012,6 +5942,14 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
